--- a/fuentes/contenidos/grado09/guion06/SolicitudGrafica_MA_09_06_CO_REC20/SolicitudGrafica_MA_09_06_COREC20.xlsx
+++ b/fuentes/contenidos/grado09/guion06/SolicitudGrafica_MA_09_06_CO_REC20/SolicitudGrafica_MA_09_06_COREC20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_06_CO\SolicitudGrafica_MA_09_06_CO_REC20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristhianAndres\Documents\Github\Matematicas\fuentes\contenidos\grado09\guion06\SolicitudGrafica_MA_09_06_CO_REC20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -1769,7 +1769,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2813,8 +2813,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
